--- a/fishing_data.xlsx
+++ b/fishing_data.xlsx
@@ -16,7 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +517,773 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22:57</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23:05</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:21</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23:31</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23:41</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N6" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23:48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="N7" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>00:05</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>00:25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01:01</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N10" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01:09</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01:19</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="N12" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01:33</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N13" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01:55</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cloudy</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N14" t="n">
+        <v>51</v>
+      </c>
+      <c r="O14" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fishing_data.xlsx
+++ b/fishing_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>2.000000000000001</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>1010.2</v>
@@ -1229,7 +1229,7 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1282,6 +1282,2130 @@
       </c>
       <c r="O14" t="n">
         <v>32.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>05:06</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>05:20</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Bowfin</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="N16" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>05:29</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>20</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N17" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>05:49</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N18" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>05:57</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N19" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>06:14</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>06:21</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>20</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N21" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>06:31</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N22" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>06:40</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>20</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N23" t="n">
+        <v>44.00000000000003</v>
+      </c>
+      <c r="O23" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>06:55</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>20</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="N24" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>07:04</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>20</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N25" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>07:34</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N26" t="n">
+        <v>44.80000000000002</v>
+      </c>
+      <c r="O26" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N27" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N28" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08:17</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Bowfin</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N30" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N31" t="n">
+        <v>48.80000000000002</v>
+      </c>
+      <c r="O31" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08:55</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="N32" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>87.59999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>09:10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Partly cloudy</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1019</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N33" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>21</v>
+      </c>
+      <c r="H34" t="n">
+        <v>18</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N34" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>21</v>
+      </c>
+      <c r="H35" t="n">
+        <v>18</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N35" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>26</v>
+      </c>
+      <c r="H36" t="n">
+        <v>19</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N36" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>26</v>
+      </c>
+      <c r="H37" t="n">
+        <v>19</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N37" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>26</v>
+      </c>
+      <c r="H38" t="n">
+        <v>19</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="N38" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="O38" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>26</v>
+      </c>
+      <c r="H39" t="n">
+        <v>19</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="N39" t="n">
+        <v>45.70000000000002</v>
+      </c>
+      <c r="O39" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>26</v>
+      </c>
+      <c r="H40" t="n">
+        <v>19</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N40" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>26</v>
+      </c>
+      <c r="H41" t="n">
+        <v>19</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N41" t="n">
+        <v>43</v>
+      </c>
+      <c r="O41" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10:47:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>26</v>
+      </c>
+      <c r="H42" t="n">
+        <v>19</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="N42" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="O42" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>26</v>
+      </c>
+      <c r="H43" t="n">
+        <v>19</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N43" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="O43" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>26</v>
+      </c>
+      <c r="H44" t="n">
+        <v>19</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N44" t="n">
+        <v>48.60000000000001</v>
+      </c>
+      <c r="O44" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>26</v>
+      </c>
+      <c r="H45" t="n">
+        <v>19</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N45" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>26</v>
+      </c>
+      <c r="H46" t="n">
+        <v>19</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="N46" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>26</v>
+      </c>
+      <c r="H47" t="n">
+        <v>19</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Butterfly Peacock Bass</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N47" t="n">
+        <v>44.09999999999999</v>
+      </c>
+      <c r="O47" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>11:49</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>26</v>
+      </c>
+      <c r="H48" t="n">
+        <v>19</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N48" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>26</v>
+      </c>
+      <c r="H49" t="n">
+        <v>19</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="N49" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="O49" t="n">
+        <v>72.40000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>26</v>
+      </c>
+      <c r="H50" t="n">
+        <v>19</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Spinning</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Largemouth Bass</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N50" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="O50" t="n">
+        <v>67.2</v>
       </c>
     </row>
   </sheetData>
